--- a/persian/modernmt.xlsx
+++ b/persian/modernmt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spreadhseets\persian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01851FB8-02D8-4AD5-AB68-1AD532E2FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93457196-3FDE-46D0-B402-381B4727A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="474">
   <si>
     <t>Error Typology Benchmark</t>
   </si>
@@ -1415,12 +1415,6 @@
     <t>PenaltiesThresholds worksheet: input the penalties and threshold you want the evaluation template to apply. The penalties allocate negative points to identified errors. They can vary depending on the severity of a particular error. The threshold is the maximum number of penalty points the content can obtain per 1000 words in order to pass the evaluation. See PenaltiesThresholds worksheet for examples used in industry.</t>
   </si>
   <si>
-    <t>Number of words till here</t>
-  </si>
-  <si>
-    <t>Negative Points till here</t>
-  </si>
-  <si>
     <t>این پسر بچه با پدرش تنها زندگی می‌کرد و رابطه ویژه‌ای بین آن دو وجود داشت.</t>
   </si>
   <si>
@@ -1445,9 +1439,6 @@
     <t>این شماره تلفن عوض شده.</t>
   </si>
   <si>
-    <t>لقد تم تغيير رقم الهاتف هذا.</t>
-  </si>
-  <si>
     <t>چند روز در هفته ورزش میکنی؟</t>
   </si>
   <si>
@@ -1481,9 +1472,6 @@
     <t>چند شعبه مختلف آن نیز در ل سآنجلس و شیکاگو قرار دارد.</t>
   </si>
   <si>
-    <t>وتقع بعض فروعها المختلفة في لوس أنجلوس وشيكاغو أيضًا.</t>
-  </si>
-  <si>
     <t>دلش نمی خواست برود.</t>
   </si>
   <si>
@@ -1511,9 +1499,6 @@
     <t>تک تک اینان می بایست اجرا میشد.</t>
   </si>
   <si>
-    <t>وكان ينبغي تنفيذ كل واحدة منها.</t>
-  </si>
-  <si>
     <t>مرد اول از خدا خانه، لباس و غذای بیشتری خواست.</t>
   </si>
   <si>
@@ -1565,15 +1550,9 @@
     <t>سه روز دیگه برمیگردند.</t>
   </si>
   <si>
-    <t>وسوف يعودون في ثلاثة أيام.</t>
-  </si>
-  <si>
     <t>پول خوبی در میآورند میگوید اما زندگی اهمیت ندارد.</t>
   </si>
   <si>
-    <t>ويقول إنهم يكسبون أموالاً جيدة، لكن الحياة ليس لها أهمية.</t>
-  </si>
-  <si>
     <t>ما تو فرودگاه همراهش بودیم.</t>
   </si>
   <si>
@@ -1595,21 +1574,12 @@
     <t>من هم بهایی هستم.</t>
   </si>
   <si>
-    <t>وأنا بهائي أيضًا.</t>
-  </si>
-  <si>
     <t>بابا هم گفت عیب ندارد.</t>
   </si>
   <si>
-    <t>قال أبي أيضًا إنها ليست مشكلة.</t>
-  </si>
-  <si>
     <t>نادرشاه رهبران بزرگ شیعه و سنّی را گرد هم آورد.</t>
   </si>
   <si>
-    <t>لقد جمع نادر شاه كبار زعماء الشيعة والسنة معًا.</t>
-  </si>
-  <si>
     <t>جمعاً ۷۸ آسانسور در این دو ساختمان فعال هستند.</t>
   </si>
   <si>
@@ -1643,9 +1613,6 @@
     <t>پیرمرد کمی نوشابه خورد و همسرش نیز از همان لیوان کمی نوشید.</t>
   </si>
   <si>
-    <t>شرب الرجل العجوز قليلا من المشروب وشربت زوجته أيضا بعضا من نفس الكأس.</t>
-  </si>
-  <si>
     <t>از میان آن کتابها یکی را که به عبارت ساده تر و کلمات و اصطلاحات فنی در آن نسبتا کمتر بود اختیار کردم.</t>
   </si>
   <si>
@@ -1655,15 +1622,9 @@
     <t>دود سیگارش را توی صورت او فوت کرد.</t>
   </si>
   <si>
-    <t>ونفخت دخان السجائر في وجهه.</t>
-  </si>
-  <si>
     <t>این کشور دارای راه آبی به دریاهای آزاد نیست.</t>
   </si>
   <si>
-    <t>هذا البلد ليس لديه ممر مائي لفتح المياه.</t>
-  </si>
-  <si>
     <t>میتوانیم لیست بلند بالایی از داشتههامون تهیه کنیم.</t>
   </si>
   <si>
@@ -1673,36 +1634,10 @@
     <t>خرسهای کوالا یکی از کندترین حیوانات جهان هستند.</t>
   </si>
   <si>
-    <t>تعتبر دببة الكوالا واحدة من أبطأ الحيوانات في العالم.</t>
-  </si>
-  <si>
     <t>عاش الصبي بمفرده مع والده، وكانت هناك علاقة خاصة بين الاثنين.</t>
   </si>
   <si>
     <t>لا تكذب علي.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">يبدو أنها أكثر </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ازدحاما</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> من الأماكن الأخرى.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1739,26 +1674,6 @@
         <family val="2"/>
       </rPr>
       <t>العهد</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> متعب.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>بيمان</t>
     </r>
     <r>
       <rPr>
@@ -1813,29 +1728,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">أريد أن أتحدث مع </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>مريم</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">أريد التحدث إلى </t>
     </r>
     <r>
@@ -1884,29 +1776,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">تركت </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>دنيا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ألعابها للأطفال.</t>
-    </r>
-  </si>
-  <si>
     <t>اسأل السيدة بنفسها.</t>
   </si>
   <si>
@@ -1933,29 +1802,6 @@
         <family val="2"/>
       </rPr>
       <t>نجحت معي.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">كل يوم كنت أسأل نفسي ماذا فعلت حتى </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>يطردوني من العمل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -1981,31 +1827,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">كل يوم </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>كنت أسأل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> نفسي ماذا فعلت حتى يطردوني من العمل.</t>
-    </r>
-  </si>
-  <si>
-    <t>هاجر العديد من الأكراد الأتراك إلى اسطنبول.</t>
-  </si>
-  <si>
     <t>قد هاجر العديد من أكراد تركيا إلى إسطنبول.</t>
   </si>
   <si>
@@ -2022,26 +1843,6 @@
   </si>
   <si>
     <t>أقاموا هنا لأكثر من خمس سنوات.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>بلغت</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ثلاثمائة تومان.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2065,9 +1866,6 @@
   </si>
   <si>
     <t>أنت لست جائعًا الآن.</t>
-  </si>
-  <si>
-    <t>فأنت لست جائعا الآن.</t>
   </si>
   <si>
     <r>
@@ -2093,17 +1891,195 @@
     </r>
   </si>
   <si>
+    <t>هل وجدت وظيفة ؟</t>
+  </si>
+  <si>
+    <t>أنت عادة تتحدث الإنجليزية أكثر مني بكثير.</t>
+  </si>
+  <si>
+    <t>وظفوا اثنين آخرين.</t>
+  </si>
+  <si>
+    <t>سيعودون بعد ثلاثة أيام.</t>
+  </si>
+  <si>
+    <t>يقول إنهم يكسبون أموالًا جيدة، لكن الحياة لا تهم.</t>
+  </si>
+  <si>
+    <t>كنا معه في المطار.</t>
+  </si>
+  <si>
+    <t>أنت في سفارة هذا البلد.</t>
+  </si>
+  <si>
+    <t>حصلت على هذا أيضًا من المكتبة.</t>
+  </si>
+  <si>
+    <t>جمعوا هذه البيانات في مكان واحد.</t>
+  </si>
+  <si>
+    <t>حرف های بسیاری هست که باید گفته شود.</t>
+  </si>
+  <si>
+    <t>هناك الكثير من الكلام الذي يجب أن يقال.</t>
+  </si>
+  <si>
+    <t>پدرش را سال ها قبل از دست داده بود.</t>
+  </si>
+  <si>
+    <t>كان قد فقد والده منذ سنوات.</t>
+  </si>
+  <si>
+    <t>در این مدت که همدیگر را ندیده ایم چه کتابی خوانده ای؟</t>
+  </si>
+  <si>
+    <t>في هذه الفترة التي لم نرى فيها بعضنا البعض، ما هي الكتب التي قرأتها؟</t>
+  </si>
+  <si>
+    <t>او در سال ۱۸۸۸ پسری به دنیا آورد.</t>
+  </si>
+  <si>
+    <t>أنجبت ولداً في عام 1888.</t>
+  </si>
+  <si>
+    <t>نظر شما در این مورد چیست؟</t>
+  </si>
+  <si>
+    <t>ما هو رأيك في هذا؟</t>
+  </si>
+  <si>
+    <t>خیلی از مردم دنباله کار اند.</t>
+  </si>
+  <si>
+    <t>كثير من الناس يبحثون عن عمل.</t>
+  </si>
+  <si>
+    <t>تنها در داخل درهها امکان سکونت و کشاورزی وجود دارد.</t>
+  </si>
+  <si>
+    <t>السكن والزراعة ممكنان فقط داخل الوديان.</t>
+  </si>
+  <si>
+    <t>متأسفانه همه چیز روسی نوشته شده.</t>
+  </si>
+  <si>
+    <t>لسوء الحظ، كل شيء مكتوب باللغة الروسية.</t>
+  </si>
+  <si>
+    <t>پاکی از همه چیز مهمتر است!</t>
+  </si>
+  <si>
+    <t>النقاء هو أهم شيء!</t>
+  </si>
+  <si>
+    <t>به طور معمول بارندگی در این کشور کم است.</t>
+  </si>
+  <si>
+    <t>عادة ، هناك القليل من الأمطار في هذا البلد.</t>
+  </si>
+  <si>
+    <t>جاء المدرب إليه مع برقية.</t>
+  </si>
+  <si>
+    <t>أنا بهائي أيضا.</t>
+  </si>
+  <si>
+    <t>جمع الملك القادة الشيعة والسنة العظماء.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">أينما كنت في العالم، </t>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>و</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>سيساعدك هذا</t>
+      <t>يعمل ما مجموعه 78 مصعدًا في المبنيين.</t>
+    </r>
+  </si>
+  <si>
+    <t>سارع نحو المدينة.</t>
+  </si>
+  <si>
+    <t>بدا عمره حوالي 40 أو 45 عامًا.</t>
+  </si>
+  <si>
+    <t>أعطاني الرقم.</t>
+  </si>
+  <si>
+    <t>كلما وأينما كنت في إيران، سيكون هاتفك المحمول دليلك.</t>
+  </si>
+  <si>
+    <t>شرب الرجل العجوز قليلاً، وشربت زوجته من نفس الكأس.</t>
+  </si>
+  <si>
+    <t>من بين تلك الكتب، أخذت كتابًا أبسط وكان يحتوي على عدد أقل نسبيًا من الكلمات والمصطلحات الفنية.</t>
+  </si>
+  <si>
+    <t>نفخت دخان سيجارتها في وجهه.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>دخن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>السجائر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> في وجهه.</t>
+    </r>
+  </si>
+  <si>
+    <t>هذا البلد لا يمتلك ممرا مائيا إلى المياه المفتوحة.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">لا يوجد في البلاد ممر مائي </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>إلى أعالي البحار</t>
     </r>
     <r>
       <rPr>
@@ -2116,13 +2092,289 @@
     </r>
   </si>
   <si>
-    <t>هل وجدت وظيفة ؟</t>
-  </si>
-  <si>
-    <t>أنت عادة تتحدث الإنجليزية أكثر مني بكثير.</t>
-  </si>
-  <si>
-    <t>وظفوا اثنين آخرين.</t>
+    <r>
+      <t xml:space="preserve">يمكننا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>وضع</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> قائمة طويلة من ممتلكاتنا.</t>
+    </r>
+  </si>
+  <si>
+    <t>این داده ها را در یک محل واحد جمع کردند.</t>
+  </si>
+  <si>
+    <t>تعتبر دببة الكوالا من أبطأ الحيوانات في العالم.</t>
+  </si>
+  <si>
+    <t>جمعت هذه البيانات في موقع واحد.</t>
+  </si>
+  <si>
+    <t>هناك الكثير من الأشياء التي يجب قولها.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>لقد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> فقد والده منذ سنوات.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ما الكتاب الذي قرأته خلال هذا الوقت </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ولم نر</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> بعضنا البعض ؟</t>
+    </r>
+  </si>
+  <si>
+    <t>أنجبت ابنًا في عام 1888.</t>
+  </si>
+  <si>
+    <t>ما هو رأيك في هذا ؟</t>
+  </si>
+  <si>
+    <t>يبحث الكثير من الناس عن عمل.</t>
+  </si>
+  <si>
+    <t>من الممكن فقط العيش والزراعة في الوديان.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">النظافة هي الأهم من </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ذلك</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> كله!</t>
+    </r>
+  </si>
+  <si>
+    <t>عادة ما يكون هناك القليل من الأمطار في البلاد.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بيمان متعب.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">يبدو أنها أكثر </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ازدحاما من الأماكن الأخرى.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أريد أن أتحدث مع </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>مريم.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تركت </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>دنيا ألعابها للأطفال.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">كل يوم كنت أسأل نفسي ماذا فعلت حتى </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>يطردوني من العمل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">كل يوم </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>كنت أسأل نفسي ماذا فعلت حتى يطردوني من العمل.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>بلغت ثلاثمائة تومان.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أينما كنت في العالم، </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>سيساعدك هذا.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>لقد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> تم تغيير رقم الهاتف هذا.</t>
+    </r>
+  </si>
+  <si>
+    <t>تقع بعض فروعها المختلفة في لوس أنجلوس وشيكاغو أيضًا.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">هاجر العديد من </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>الأكراد الأتراك</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> إلى اسطنبول.</t>
+    </r>
+  </si>
+  <si>
+    <t>كان ينبغي تنفيذ كل واحدة منها.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ف</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t>أنت لست جائعا الآن.</t>
+    </r>
+  </si>
+  <si>
+    <t>سوف يعودون في ثلاثة أيام.</t>
   </si>
   <si>
     <r>
@@ -2140,7 +2392,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -2148,20 +2399,29 @@
     </r>
   </si>
   <si>
-    <t>سيعودون بعد ثلاثة أيام.</t>
-  </si>
-  <si>
-    <t>يقول إنهم يكسبون أموالًا جيدة، لكن الحياة لا تهم.</t>
-  </si>
-  <si>
-    <t>كنا معه في المطار.</t>
-  </si>
-  <si>
-    <t>أنت في سفارة هذا البلد.</t>
+    <t>یقول إنهم يكسبون أموالاً جيدة، لكن الحياة ليس لها أهمية.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">لقد جلست </t>
+      <t xml:space="preserve">لقد </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>جلست</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> أنت </t>
     </r>
     <r>
       <rPr>
@@ -2175,7 +2435,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -2183,14 +2442,141 @@
     </r>
   </si>
   <si>
-    <t>حصلت على هذا أيضًا من المكتبة.</t>
+    <r>
+      <t>قال والد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ي</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> إنه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>لم يكن سيئًا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> أيضًا.</t>
+    </r>
+  </si>
+  <si>
+    <t>قال الأب أيضًا لا توجد مشكلة.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جمع </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>نادر شاه</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> كبار زعماء الشيعة والسنة معًا.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">شرب الرجل العجوز قليلا </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>من المشروب</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> وشربت زوجته </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>أيضا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> بعضا من نفس الكأس.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">دببة الكوالا هي </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>واحدة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> من أبطأ الحيوانات في العالم.</t>
+    </r>
+  </si>
+  <si>
+    <t>أنا بهائي أيضًا.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2461,6 +2847,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2482,7 +2886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -3422,37 +3826,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF003366"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3779,19 +4157,29 @@
     <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4330,29 +4718,29 @@
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -5010,10 +5398,10 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="190"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="129"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
@@ -5031,10 +5419,10 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="190"/>
+      <c r="B3" s="194"/>
       <c r="C3" s="129"/>
       <c r="D3" s="1"/>
       <c r="E3" s="14" t="s">
@@ -5052,18 +5440,18 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="193" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="190"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="129"/>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="204" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
       <c r="J4" s="21"/>
       <c r="K4" s="170"/>
       <c r="L4" s="1"/>
@@ -5072,10 +5460,10 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="190"/>
+      <c r="B5" s="194"/>
       <c r="C5" s="129"/>
       <c r="D5" s="111"/>
       <c r="E5" s="169" t="s">
@@ -5374,11 +5762,11 @@
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5416,16 +5804,16 @@
       <c r="C22" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="196" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="193"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="192" t="s">
+      <c r="E22" s="197"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="193"/>
-      <c r="I22" s="194"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="198"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5441,14 +5829,14 @@
       <c r="C23" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="199" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="196"/>
-      <c r="F23" s="196"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="203"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="207"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -5464,14 +5852,14 @@
       <c r="C24" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="197" t="s">
+      <c r="D24" s="201" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="198"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="188"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="192"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -5488,9 +5876,9 @@
         <v>248</v>
       </c>
       <c r="F25" s="122"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="188"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="192"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -5507,9 +5895,9 @@
         <v>249</v>
       </c>
       <c r="F26" s="122"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="188"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="192"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -5526,9 +5914,9 @@
         <v>250</v>
       </c>
       <c r="F27" s="122"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="188"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="192"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -5545,9 +5933,9 @@
         <v>251</v>
       </c>
       <c r="F28" s="122"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="188"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="192"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5564,9 +5952,9 @@
         <v>252</v>
       </c>
       <c r="F29" s="122"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="192"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5583,9 +5971,9 @@
         <v>253</v>
       </c>
       <c r="F30" s="122"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="188"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="192"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5602,9 +5990,9 @@
         <v>254</v>
       </c>
       <c r="F31" s="122"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="188"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="192"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5621,9 +6009,9 @@
         <v>255</v>
       </c>
       <c r="F32" s="122"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="188"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5640,9 +6028,9 @@
         <v>256</v>
       </c>
       <c r="F33" s="122"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="188"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5659,9 +6047,9 @@
         <v>257</v>
       </c>
       <c r="F34" s="122"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="188"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="192"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5678,9 +6066,9 @@
         <v>258</v>
       </c>
       <c r="F35" s="122"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="188"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5697,9 +6085,9 @@
         <v>259</v>
       </c>
       <c r="F36" s="122"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="188"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="192"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5716,9 +6104,9 @@
         <v>260</v>
       </c>
       <c r="F37" s="122"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="199"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="203"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5866,21 +6254,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="5" width="31.85546875" customWidth="1"/>
+    <col min="3" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="186" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="28.42578125" customWidth="1"/>
     <col min="13" max="16" width="13.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" customWidth="1"/>
@@ -5896,14 +6285,14 @@
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
       <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
@@ -5939,7 +6328,7 @@
       <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="181" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -5957,19 +6346,15 @@
       <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="176" t="s">
-        <v>297</v>
-      </c>
-      <c r="L2" s="177" t="s">
-        <v>298</v>
-      </c>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="214"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="218"/>
       <c r="R2" s="17"/>
       <c r="S2" s="125" t="s">
         <v>33</v>
@@ -5989,35 +6374,35 @@
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="180">
+      <c r="B3" s="176">
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>300</v>
+        <v>370</v>
+      </c>
+      <c r="E3" s="182" t="s">
+        <v>298</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="48"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="50"/>
-      <c r="K3" s="178" t="str">
+      <c r="K3" s="122" t="str">
         <f t="shared" ref="K3:K67" si="0">CONCATENATE(F3,I3)</f>
         <v/>
       </c>
-      <c r="L3" s="179"/>
-      <c r="M3" s="205" t="s">
+      <c r="L3" s="122"/>
+      <c r="M3" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="207"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="211"/>
       <c r="R3" s="17"/>
       <c r="S3" s="160" t="s">
         <v>273</v>
@@ -6034,21 +6419,20 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
-        <f t="shared" ref="A4:A68" si="1">A3+1</f>
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="181">
+      <c r="B4" s="176">
         <v>2</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>390</v>
+        <v>374</v>
+      </c>
+      <c r="E4" s="183" t="s">
+        <v>451</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>83</v>
@@ -6061,18 +6445,18 @@
         <v>291</v>
       </c>
       <c r="J4" s="85"/>
-      <c r="K4" s="178" t="str">
+      <c r="K4" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="205" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="207"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="211"/>
       <c r="R4" s="17"/>
       <c r="S4" s="18" t="s">
         <v>50</v>
@@ -6089,39 +6473,38 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
-        <f t="shared" si="1"/>
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="181">
+      <c r="B5" s="176">
         <v>3</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="E5" s="183" t="s">
+        <v>301</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="178" t="str">
+      <c r="K5" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="179"/>
-      <c r="M5" s="205" t="s">
+      <c r="L5" s="122"/>
+      <c r="M5" s="209" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="207"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="211"/>
       <c r="R5" s="88"/>
       <c r="S5" s="18" t="s">
         <v>97</v>
@@ -6138,39 +6521,38 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
-        <f t="shared" si="1"/>
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="181">
+      <c r="B6" s="176">
         <v>4</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>385</v>
+        <v>371</v>
+      </c>
+      <c r="E6" s="183" t="s">
+        <v>371</v>
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="79"/>
       <c r="H6" s="79"/>
       <c r="I6" s="79"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="178" t="str">
+      <c r="K6" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="179"/>
-      <c r="M6" s="205" t="s">
+      <c r="L6" s="122"/>
+      <c r="M6" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="207"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="211"/>
       <c r="R6" s="1"/>
       <c r="S6" s="160" t="s">
         <v>275</v>
@@ -6187,21 +6569,20 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <f t="shared" si="1"/>
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="181">
+      <c r="B7" s="176">
         <v>5</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>386</v>
+        <v>372</v>
+      </c>
+      <c r="E7" s="183" t="s">
+        <v>452</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>83</v>
@@ -6214,16 +6595,16 @@
         <v>291</v>
       </c>
       <c r="J7" s="85"/>
-      <c r="K7" s="178" t="str">
+      <c r="K7" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="207"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="211"/>
       <c r="R7" s="88"/>
       <c r="S7" s="160" t="s">
         <v>276</v>
@@ -6240,39 +6621,44 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
-        <f t="shared" si="1"/>
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="181">
+      <c r="B8" s="176">
         <v>6</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+        <v>373</v>
+      </c>
+      <c r="E8" s="177" t="s">
+        <v>459</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="I8" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J8" s="85"/>
-      <c r="K8" s="178" t="str">
+      <c r="K8" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L8" s="179"/>
-      <c r="M8" s="205" t="s">
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L8" s="122"/>
+      <c r="M8" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="207"/>
+      <c r="N8" s="210"/>
+      <c r="O8" s="210"/>
+      <c r="P8" s="210"/>
+      <c r="Q8" s="211"/>
       <c r="R8" s="88"/>
       <c r="S8" s="160" t="s">
         <v>277</v>
@@ -6289,21 +6675,20 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
-        <f t="shared" si="1"/>
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="181">
+      <c r="B9" s="176">
         <v>7</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>309</v>
+        <v>375</v>
+      </c>
+      <c r="E9" s="183" t="s">
+        <v>306</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>139</v>
@@ -6316,16 +6701,16 @@
         <v>293</v>
       </c>
       <c r="J9" s="85"/>
-      <c r="K9" s="178" t="str">
+      <c r="K9" s="122" t="str">
         <f t="shared" si="0"/>
         <v>FluencyNeutral</v>
       </c>
-      <c r="L9" s="179"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="206"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="207"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="211"/>
       <c r="R9" s="1"/>
       <c r="S9" s="161" t="s">
         <v>109</v>
@@ -6342,19 +6727,20 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <f t="shared" si="1"/>
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="181"/>
+      <c r="B10" s="176">
+        <v>8</v>
+      </c>
       <c r="C10" s="78" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>392</v>
+        <v>376</v>
+      </c>
+      <c r="E10" s="183" t="s">
+        <v>453</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>83</v>
@@ -6367,18 +6753,18 @@
         <v>291</v>
       </c>
       <c r="J10" s="85"/>
-      <c r="K10" s="178" t="str">
+      <c r="K10" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L10" s="179"/>
-      <c r="M10" s="205" t="s">
+      <c r="L10" s="122"/>
+      <c r="M10" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="206"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="211"/>
       <c r="R10" s="17"/>
       <c r="S10" s="21"/>
       <c r="T10" s="1"/>
@@ -6393,35 +6779,42 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <f t="shared" si="1"/>
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="181"/>
+      <c r="B11" s="176">
+        <v>9</v>
+      </c>
       <c r="C11" s="78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+        <v>377</v>
+      </c>
+      <c r="E11" s="183" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="I11" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J11" s="85"/>
-      <c r="K11" s="178" t="str">
+      <c r="K11" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="179"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="207"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L11" s="122"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="210"/>
+      <c r="O11" s="210"/>
+      <c r="P11" s="210"/>
+      <c r="Q11" s="211"/>
       <c r="R11" s="17"/>
       <c r="S11" s="21"/>
       <c r="T11" s="1"/>
@@ -6436,19 +6829,20 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
-        <f t="shared" si="1"/>
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="181"/>
+      <c r="B12" s="176">
+        <v>10</v>
+      </c>
       <c r="C12" s="78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>395</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>396</v>
+        <v>378</v>
+      </c>
+      <c r="E12" s="183" t="s">
+        <v>454</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>83</v>
@@ -6461,18 +6855,18 @@
         <v>291</v>
       </c>
       <c r="J12" s="85"/>
-      <c r="K12" s="178" t="str">
+      <c r="K12" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L12" s="179"/>
-      <c r="M12" s="205" t="s">
+      <c r="L12" s="122"/>
+      <c r="M12" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="206"/>
-      <c r="O12" s="206"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="207"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="210"/>
+      <c r="Q12" s="211"/>
       <c r="R12" s="88"/>
       <c r="S12" s="21"/>
       <c r="T12" s="1"/>
@@ -6487,35 +6881,36 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
-        <f t="shared" si="1"/>
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="181"/>
+      <c r="B13" s="176">
+        <v>11</v>
+      </c>
       <c r="C13" s="78" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>315</v>
+        <v>379</v>
+      </c>
+      <c r="E13" s="183" t="s">
+        <v>312</v>
       </c>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
       <c r="H13" s="79"/>
       <c r="I13" s="79"/>
       <c r="J13" s="85"/>
-      <c r="K13" s="178" t="str">
+      <c r="K13" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L13" s="179"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="210"/>
-      <c r="Q13" s="211"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="215"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6530,30 +6925,31 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
-        <f t="shared" si="1"/>
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="181"/>
+      <c r="B14" s="176">
+        <v>12</v>
+      </c>
       <c r="C14" s="78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>317</v>
+        <v>380</v>
+      </c>
+      <c r="E14" s="183" t="s">
+        <v>314</v>
       </c>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
       <c r="J14" s="85"/>
-      <c r="K14" s="178" t="str">
+      <c r="K14" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="179"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6573,30 +6969,31 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
-        <f t="shared" si="1"/>
+      <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="176">
+        <v>13</v>
+      </c>
       <c r="C15" s="78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>319</v>
+        <v>381</v>
+      </c>
+      <c r="E15" s="183" t="s">
+        <v>460</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
       <c r="J15" s="85"/>
-      <c r="K15" s="178" t="str">
+      <c r="K15" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="179"/>
+      <c r="L15" s="122"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -6616,30 +7013,31 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
-        <f t="shared" si="1"/>
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="181"/>
+      <c r="B16" s="176">
+        <v>14</v>
+      </c>
       <c r="C16" s="78" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>321</v>
+        <v>382</v>
+      </c>
+      <c r="E16" s="183" t="s">
+        <v>317</v>
       </c>
       <c r="F16" s="79"/>
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="85"/>
-      <c r="K16" s="178" t="str">
+      <c r="K16" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="179"/>
+      <c r="L16" s="122"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6659,30 +7057,31 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
-        <f t="shared" si="1"/>
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="181"/>
+      <c r="B17" s="176">
+        <v>15</v>
+      </c>
       <c r="C17" s="78" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>323</v>
+        <v>319</v>
+      </c>
+      <c r="E17" s="183" t="s">
+        <v>319</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="85"/>
-      <c r="K17" s="178" t="str">
+      <c r="K17" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="179"/>
+      <c r="L17" s="122"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6702,30 +7101,31 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
-        <f t="shared" si="1"/>
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="181"/>
+      <c r="B18" s="176">
+        <v>16</v>
+      </c>
       <c r="C18" s="78" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>401</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>325</v>
+        <v>383</v>
+      </c>
+      <c r="E18" s="183" t="s">
+        <v>321</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="79"/>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
       <c r="J18" s="85"/>
-      <c r="K18" s="178" t="str">
+      <c r="K18" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="179"/>
+      <c r="L18" s="122"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -6745,19 +7145,20 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
-        <f t="shared" si="1"/>
+      <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="181"/>
+      <c r="B19" s="176">
+        <v>17</v>
+      </c>
       <c r="C19" s="78" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>403</v>
+        <v>384</v>
+      </c>
+      <c r="E19" s="183" t="s">
+        <v>455</v>
       </c>
       <c r="F19" s="79" t="s">
         <v>83</v>
@@ -6770,11 +7171,11 @@
         <v>291</v>
       </c>
       <c r="J19" s="85"/>
-      <c r="K19" s="178" t="str">
+      <c r="K19" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L19" s="179"/>
+      <c r="L19" s="122"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -6794,14 +7195,18 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="181"/>
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="176">
+        <v>17</v>
+      </c>
       <c r="C20" s="78"/>
-      <c r="D20" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="E20" s="182" t="s">
-        <v>405</v>
+      <c r="D20" s="177" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="183" t="s">
+        <v>456</v>
       </c>
       <c r="F20" s="79" t="s">
         <v>83</v>
@@ -6811,11 +7216,11 @@
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J20" s="85"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="179"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -6835,19 +7240,20 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
-        <f>A19+1</f>
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="176">
         <v>18</v>
       </c>
-      <c r="B21" s="181"/>
       <c r="C21" s="78" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>407</v>
+        <v>461</v>
+      </c>
+      <c r="E21" s="183" t="s">
+        <v>386</v>
       </c>
       <c r="F21" s="79" t="s">
         <v>83</v>
@@ -6860,11 +7266,11 @@
         <v>291</v>
       </c>
       <c r="J21" s="85"/>
-      <c r="K21" s="178" t="str">
+      <c r="K21" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L21" s="179"/>
+      <c r="L21" s="122"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -6884,30 +7290,31 @@
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
-        <f t="shared" si="1"/>
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="176">
         <v>19</v>
       </c>
-      <c r="B22" s="181"/>
       <c r="C22" s="78" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>329</v>
+        <v>387</v>
+      </c>
+      <c r="E22" s="183" t="s">
+        <v>462</v>
       </c>
       <c r="F22" s="79"/>
       <c r="G22" s="79"/>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
       <c r="J22" s="85"/>
-      <c r="K22" s="178" t="str">
+      <c r="K22" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L22" s="179"/>
+      <c r="L22" s="122"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -6927,30 +7334,31 @@
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
-        <f t="shared" si="1"/>
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="176">
         <v>20</v>
       </c>
-      <c r="B23" s="181"/>
       <c r="C23" s="78" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>331</v>
+        <v>388</v>
+      </c>
+      <c r="E23" s="183" t="s">
+        <v>326</v>
       </c>
       <c r="F23" s="79"/>
       <c r="G23" s="79"/>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
       <c r="J23" s="85"/>
-      <c r="K23" s="178" t="str">
+      <c r="K23" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L23" s="179"/>
+      <c r="L23" s="122"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -6970,30 +7378,31 @@
       <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
-        <f t="shared" si="1"/>
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="176">
         <v>21</v>
       </c>
-      <c r="B24" s="181"/>
       <c r="C24" s="78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>333</v>
+        <v>389</v>
+      </c>
+      <c r="E24" s="183" t="s">
+        <v>328</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="79"/>
       <c r="H24" s="79"/>
       <c r="I24" s="79"/>
       <c r="J24" s="85"/>
-      <c r="K24" s="178" t="str">
+      <c r="K24" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="179"/>
+      <c r="L24" s="122"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -7013,30 +7422,31 @@
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
-        <f t="shared" si="1"/>
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="176">
         <v>22</v>
       </c>
-      <c r="B25" s="181"/>
       <c r="C25" s="78" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>335</v>
+        <v>391</v>
+      </c>
+      <c r="E25" s="183" t="s">
+        <v>330</v>
       </c>
       <c r="F25" s="79"/>
       <c r="G25" s="79"/>
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
       <c r="J25" s="85"/>
-      <c r="K25" s="178" t="str">
+      <c r="K25" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="179"/>
+      <c r="L25" s="122"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -7056,30 +7466,31 @@
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
-        <f t="shared" si="1"/>
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="176">
         <v>23</v>
       </c>
-      <c r="B26" s="181"/>
       <c r="C26" s="78" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>411</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>337</v>
+        <v>390</v>
+      </c>
+      <c r="E26" s="183" t="s">
+        <v>332</v>
       </c>
       <c r="F26" s="79"/>
       <c r="G26" s="79"/>
       <c r="H26" s="79"/>
       <c r="I26" s="79"/>
       <c r="J26" s="85"/>
-      <c r="K26" s="178" t="str">
+      <c r="K26" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="179"/>
+      <c r="L26" s="122"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -7099,19 +7510,20 @@
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
-        <f t="shared" si="1"/>
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="176">
         <v>24</v>
       </c>
-      <c r="B27" s="181"/>
       <c r="C27" s="78" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>414</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>413</v>
+        <v>392</v>
+      </c>
+      <c r="E27" s="183" t="s">
+        <v>457</v>
       </c>
       <c r="F27" s="79" t="s">
         <v>83</v>
@@ -7121,21 +7533,21 @@
       </c>
       <c r="H27" s="79"/>
       <c r="I27" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J27" s="85"/>
-      <c r="K27" s="178" t="str">
+      <c r="K27" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L27" s="179"/>
-      <c r="M27" s="205" t="s">
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L27" s="122"/>
+      <c r="M27" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="N27" s="206"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="207"/>
+      <c r="N27" s="210"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="211"/>
       <c r="R27" s="17"/>
       <c r="S27" s="18" t="s">
         <v>50</v>
@@ -7152,37 +7564,44 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
-        <f t="shared" si="1"/>
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="176">
         <v>25</v>
       </c>
-      <c r="B28" s="181"/>
       <c r="C28" s="78" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>415</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>416</v>
-      </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
+        <v>393</v>
+      </c>
+      <c r="E28" s="177" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
+      <c r="I28" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J28" s="85"/>
-      <c r="K28" s="178" t="str">
+      <c r="K28" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L28" s="179"/>
-      <c r="M28" s="205" t="s">
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L28" s="122"/>
+      <c r="M28" s="209" t="s">
         <v>96</v>
       </c>
-      <c r="N28" s="206"/>
-      <c r="O28" s="206"/>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="207"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="210"/>
+      <c r="P28" s="210"/>
+      <c r="Q28" s="211"/>
       <c r="R28" s="88"/>
       <c r="S28" s="18" t="s">
         <v>97</v>
@@ -7199,19 +7618,20 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
-        <f t="shared" si="1"/>
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="176">
         <v>26</v>
       </c>
-      <c r="B29" s="181"/>
       <c r="C29" s="78" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>418</v>
+        <v>394</v>
+      </c>
+      <c r="E29" s="183" t="s">
+        <v>458</v>
       </c>
       <c r="F29" s="79" t="s">
         <v>83</v>
@@ -7224,18 +7644,18 @@
         <v>291</v>
       </c>
       <c r="J29" s="85"/>
-      <c r="K29" s="178" t="str">
+      <c r="K29" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMajor</v>
       </c>
-      <c r="L29" s="179"/>
-      <c r="M29" s="205" t="s">
+      <c r="L29" s="122"/>
+      <c r="M29" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="N29" s="206"/>
-      <c r="O29" s="206"/>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="207"/>
+      <c r="N29" s="210"/>
+      <c r="O29" s="210"/>
+      <c r="P29" s="210"/>
+      <c r="Q29" s="211"/>
       <c r="R29" s="1"/>
       <c r="S29" s="160" t="s">
         <v>275</v>
@@ -7252,35 +7672,36 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
-        <f t="shared" si="1"/>
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="176">
         <v>27</v>
       </c>
-      <c r="B30" s="181"/>
       <c r="C30" s="78" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>342</v>
+        <v>395</v>
+      </c>
+      <c r="E30" s="183" t="s">
+        <v>337</v>
       </c>
       <c r="F30" s="79"/>
       <c r="G30" s="79"/>
       <c r="H30" s="79"/>
       <c r="I30" s="79"/>
       <c r="J30" s="85"/>
-      <c r="K30" s="178" t="str">
+      <c r="K30" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="179"/>
-      <c r="M30" s="208"/>
-      <c r="N30" s="206"/>
-      <c r="O30" s="206"/>
-      <c r="P30" s="206"/>
-      <c r="Q30" s="207"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="212"/>
+      <c r="N30" s="210"/>
+      <c r="O30" s="210"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="211"/>
       <c r="R30" s="88"/>
       <c r="S30" s="160" t="s">
         <v>276</v>
@@ -7297,37 +7718,38 @@
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
-        <f t="shared" si="1"/>
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="176">
         <v>28</v>
       </c>
-      <c r="B31" s="181"/>
       <c r="C31" s="78" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>344</v>
+        <v>396</v>
+      </c>
+      <c r="E31" s="183" t="s">
+        <v>339</v>
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="79"/>
       <c r="H31" s="79"/>
       <c r="I31" s="79"/>
       <c r="J31" s="85"/>
-      <c r="K31" s="178" t="str">
+      <c r="K31" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L31" s="179"/>
-      <c r="M31" s="205" t="s">
+      <c r="L31" s="122"/>
+      <c r="M31" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="N31" s="206"/>
-      <c r="O31" s="206"/>
-      <c r="P31" s="206"/>
-      <c r="Q31" s="207"/>
+      <c r="N31" s="210"/>
+      <c r="O31" s="210"/>
+      <c r="P31" s="210"/>
+      <c r="Q31" s="211"/>
       <c r="R31" s="88"/>
       <c r="S31" s="160" t="s">
         <v>277</v>
@@ -7344,19 +7766,20 @@
       <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
-        <f t="shared" si="1"/>
+      <c r="A32" s="20">
+        <v>30</v>
+      </c>
+      <c r="B32" s="176">
         <v>29</v>
       </c>
-      <c r="B32" s="181"/>
       <c r="C32" s="78" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>422</v>
+        <v>397</v>
+      </c>
+      <c r="E32" s="183" t="s">
+        <v>465</v>
       </c>
       <c r="F32" s="79" t="s">
         <v>83</v>
@@ -7369,16 +7792,16 @@
         <v>294</v>
       </c>
       <c r="J32" s="85"/>
-      <c r="K32" s="178" t="str">
+      <c r="K32" s="122" t="str">
         <f t="shared" si="0"/>
         <v>AccuracyMinor</v>
       </c>
-      <c r="L32" s="179"/>
-      <c r="M32" s="208"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="207"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="212"/>
+      <c r="N32" s="210"/>
+      <c r="O32" s="210"/>
+      <c r="P32" s="210"/>
+      <c r="Q32" s="211"/>
       <c r="R32" s="1"/>
       <c r="S32" s="161" t="s">
         <v>109</v>
@@ -7395,37 +7818,38 @@
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
-        <f t="shared" si="1"/>
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" s="176">
         <v>30</v>
       </c>
-      <c r="B33" s="181"/>
       <c r="C33" s="78" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>347</v>
+        <v>398</v>
+      </c>
+      <c r="E33" s="183" t="s">
+        <v>464</v>
       </c>
       <c r="F33" s="79"/>
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
       <c r="J33" s="85"/>
-      <c r="K33" s="178" t="str">
+      <c r="K33" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L33" s="179"/>
-      <c r="M33" s="205" t="s">
+      <c r="L33" s="122"/>
+      <c r="M33" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="N33" s="206"/>
-      <c r="O33" s="206"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="207"/>
+      <c r="N33" s="210"/>
+      <c r="O33" s="210"/>
+      <c r="P33" s="210"/>
+      <c r="Q33" s="211"/>
       <c r="R33" s="17"/>
       <c r="S33" s="21"/>
       <c r="T33" s="1"/>
@@ -7440,35 +7864,36 @@
       <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
-        <f t="shared" si="1"/>
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="176">
         <v>31</v>
       </c>
-      <c r="B34" s="181"/>
       <c r="C34" s="78" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>349</v>
+        <v>399</v>
+      </c>
+      <c r="E34" s="183" t="s">
+        <v>466</v>
       </c>
       <c r="F34" s="79"/>
       <c r="G34" s="79"/>
       <c r="H34" s="79"/>
       <c r="I34" s="79"/>
       <c r="J34" s="85"/>
-      <c r="K34" s="178" t="str">
+      <c r="K34" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="179"/>
-      <c r="M34" s="208"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206"/>
-      <c r="P34" s="206"/>
-      <c r="Q34" s="207"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="212"/>
+      <c r="N34" s="210"/>
+      <c r="O34" s="210"/>
+      <c r="P34" s="210"/>
+      <c r="Q34" s="211"/>
       <c r="R34" s="17"/>
       <c r="S34" s="21"/>
       <c r="T34" s="1"/>
@@ -7483,37 +7908,38 @@
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
-        <f t="shared" si="1"/>
+      <c r="A35" s="20">
+        <v>33</v>
+      </c>
+      <c r="B35" s="176">
         <v>32</v>
       </c>
-      <c r="B35" s="181"/>
       <c r="C35" s="78" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D35" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>425</v>
+        <v>400</v>
+      </c>
+      <c r="E35" s="183" t="s">
+        <v>400</v>
       </c>
       <c r="F35" s="79"/>
       <c r="G35" s="79"/>
       <c r="H35" s="79"/>
       <c r="I35" s="79"/>
       <c r="J35" s="85"/>
-      <c r="K35" s="178" t="str">
+      <c r="K35" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="179"/>
-      <c r="M35" s="205" t="s">
+      <c r="L35" s="122"/>
+      <c r="M35" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="N35" s="206"/>
-      <c r="O35" s="206"/>
-      <c r="P35" s="206"/>
-      <c r="Q35" s="207"/>
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
+      <c r="P35" s="210"/>
+      <c r="Q35" s="211"/>
       <c r="R35" s="88"/>
       <c r="S35" s="21"/>
       <c r="T35" s="1"/>
@@ -7527,20 +7953,21 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
-        <f t="shared" si="1"/>
+    <row r="36" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>34</v>
+      </c>
+      <c r="B36" s="176">
         <v>33</v>
       </c>
-      <c r="B36" s="181"/>
       <c r="C36" s="78" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>427</v>
+        <v>401</v>
+      </c>
+      <c r="E36" s="183" t="s">
+        <v>467</v>
       </c>
       <c r="F36" s="79" t="s">
         <v>83</v>
@@ -7550,19 +7977,19 @@
       </c>
       <c r="H36" s="79"/>
       <c r="I36" s="79" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J36" s="85"/>
-      <c r="K36" s="178" t="str">
+      <c r="K36" s="122" t="str">
         <f t="shared" si="0"/>
-        <v>AccuracyMinor</v>
-      </c>
-      <c r="L36" s="179"/>
-      <c r="M36" s="209"/>
-      <c r="N36" s="210"/>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="211"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L36" s="122"/>
+      <c r="M36" s="213"/>
+      <c r="N36" s="214"/>
+      <c r="O36" s="214"/>
+      <c r="P36" s="214"/>
+      <c r="Q36" s="215"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -7577,30 +8004,31 @@
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
-        <f t="shared" si="1"/>
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="176">
         <v>34</v>
       </c>
-      <c r="B37" s="181"/>
       <c r="C37" s="78" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>353</v>
+        <v>402</v>
+      </c>
+      <c r="E37" s="183" t="s">
+        <v>346</v>
       </c>
       <c r="F37" s="79"/>
       <c r="G37" s="79"/>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
       <c r="J37" s="85"/>
-      <c r="K37" s="178" t="str">
+      <c r="K37" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="179"/>
+      <c r="L37" s="122"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -7620,28 +8048,31 @@
       <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
-        <f t="shared" si="1"/>
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" s="176">
         <v>35</v>
       </c>
-      <c r="B38" s="181"/>
       <c r="C38" s="78" t="s">
-        <v>354</v>
-      </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78" t="s">
-        <v>355</v>
+        <v>347</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="E38" s="183" t="s">
+        <v>348</v>
       </c>
       <c r="F38" s="79"/>
       <c r="G38" s="79"/>
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
       <c r="J38" s="85"/>
-      <c r="K38" s="178" t="str">
+      <c r="K38" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="179"/>
+      <c r="L38" s="122"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -7661,28 +8092,31 @@
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
-        <f t="shared" si="1"/>
+      <c r="A39" s="20">
+        <v>37</v>
+      </c>
+      <c r="B39" s="176">
         <v>36</v>
       </c>
-      <c r="B39" s="181"/>
       <c r="C39" s="78" t="s">
-        <v>356</v>
-      </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78" t="s">
-        <v>357</v>
+        <v>349</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="E39" s="183" t="s">
+        <v>473</v>
       </c>
       <c r="F39" s="79"/>
       <c r="G39" s="79"/>
       <c r="H39" s="79"/>
       <c r="I39" s="79"/>
       <c r="J39" s="85"/>
-      <c r="K39" s="178" t="str">
+      <c r="K39" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="179"/>
+      <c r="L39" s="122"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -7702,28 +8136,37 @@
       <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
-        <f t="shared" si="1"/>
+      <c r="A40" s="20">
+        <v>38</v>
+      </c>
+      <c r="B40" s="176">
         <v>37</v>
       </c>
-      <c r="B40" s="181"/>
       <c r="C40" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78" t="s">
-        <v>359</v>
-      </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+        <v>350</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="E40" s="183" t="s">
+        <v>469</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
+      <c r="I40" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J40" s="85"/>
-      <c r="K40" s="178" t="str">
+      <c r="K40" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L40" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L40" s="122"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -7743,28 +8186,37 @@
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
-        <f t="shared" si="1"/>
+      <c r="A41" s="20">
+        <v>39</v>
+      </c>
+      <c r="B41" s="176">
         <v>38</v>
       </c>
-      <c r="B41" s="181"/>
       <c r="C41" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
+        <v>351</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="183" t="s">
+        <v>470</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
+      <c r="I41" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J41" s="85"/>
-      <c r="K41" s="178" t="str">
+      <c r="K41" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L41" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L41" s="122"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -7784,28 +8236,37 @@
       <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
-        <f t="shared" si="1"/>
+      <c r="A42" s="20">
+        <v>40</v>
+      </c>
+      <c r="B42" s="176">
         <v>39</v>
       </c>
-      <c r="B42" s="181"/>
       <c r="C42" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
+        <v>352</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="E42" s="183" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="79" t="s">
+        <v>119</v>
+      </c>
       <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
+      <c r="I42" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J42" s="85"/>
-      <c r="K42" s="178" t="str">
+      <c r="K42" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L42" s="179"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L42" s="122"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -7825,28 +8286,31 @@
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
-        <f t="shared" si="1"/>
+      <c r="A43" s="20">
+        <v>41</v>
+      </c>
+      <c r="B43" s="176">
         <v>40</v>
       </c>
-      <c r="B43" s="181"/>
       <c r="C43" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78" t="s">
-        <v>365</v>
+        <v>354</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="E43" s="183" t="s">
+        <v>355</v>
       </c>
       <c r="F43" s="79"/>
       <c r="G43" s="79"/>
       <c r="H43" s="79"/>
       <c r="I43" s="79"/>
       <c r="J43" s="85"/>
-      <c r="K43" s="178" t="str">
+      <c r="K43" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="179"/>
+      <c r="L43" s="122"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -7866,28 +8330,31 @@
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
-        <f t="shared" si="1"/>
+      <c r="A44" s="20">
+        <v>42</v>
+      </c>
+      <c r="B44" s="176">
         <v>41</v>
       </c>
-      <c r="B44" s="181"/>
       <c r="C44" s="78" t="s">
-        <v>366</v>
-      </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78" t="s">
-        <v>367</v>
+        <v>356</v>
+      </c>
+      <c r="D44" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="E44" s="183" t="s">
+        <v>357</v>
       </c>
       <c r="F44" s="79"/>
       <c r="G44" s="79"/>
       <c r="H44" s="79"/>
       <c r="I44" s="79"/>
       <c r="J44" s="85"/>
-      <c r="K44" s="178" t="str">
+      <c r="K44" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L44" s="179"/>
+      <c r="L44" s="122"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -7907,28 +8374,31 @@
       <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
-        <f t="shared" si="1"/>
+      <c r="A45" s="20">
+        <v>43</v>
+      </c>
+      <c r="B45" s="176">
         <v>42</v>
       </c>
-      <c r="B45" s="181"/>
       <c r="C45" s="78" t="s">
-        <v>368</v>
-      </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78" t="s">
-        <v>369</v>
+        <v>358</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="183" t="s">
+        <v>359</v>
       </c>
       <c r="F45" s="79"/>
       <c r="G45" s="79"/>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
       <c r="J45" s="85"/>
-      <c r="K45" s="178" t="str">
+      <c r="K45" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L45" s="179"/>
+      <c r="L45" s="122"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -7948,28 +8418,31 @@
       <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
-        <f t="shared" si="1"/>
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="176">
         <v>43</v>
       </c>
-      <c r="B46" s="181"/>
       <c r="C46" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78" t="s">
-        <v>371</v>
+        <v>360</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="E46" s="183" t="s">
+        <v>361</v>
       </c>
       <c r="F46" s="79"/>
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="79"/>
       <c r="J46" s="85"/>
-      <c r="K46" s="178" t="str">
+      <c r="K46" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L46" s="179"/>
+      <c r="L46" s="122"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -7989,28 +8462,37 @@
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
-        <f t="shared" si="1"/>
+      <c r="A47" s="20">
+        <v>45</v>
+      </c>
+      <c r="B47" s="176">
         <v>44</v>
       </c>
-      <c r="B47" s="181"/>
       <c r="C47" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
+        <v>362</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="E47" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="F47" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
+      <c r="I47" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J47" s="85"/>
-      <c r="K47" s="178" t="str">
+      <c r="K47" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L47" s="179"/>
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L47" s="122"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -8030,28 +8512,31 @@
       <c r="AC47" s="1"/>
     </row>
     <row r="48" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
-        <f t="shared" si="1"/>
+      <c r="A48" s="20">
+        <v>46</v>
+      </c>
+      <c r="B48" s="176">
         <v>45</v>
       </c>
-      <c r="B48" s="181"/>
       <c r="C48" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78" t="s">
-        <v>375</v>
+        <v>363</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="E48" s="183" t="s">
+        <v>364</v>
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
       <c r="H48" s="79"/>
       <c r="I48" s="79"/>
       <c r="J48" s="85"/>
-      <c r="K48" s="178" t="str">
+      <c r="K48" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L48" s="179"/>
+      <c r="L48" s="122"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -8071,35 +8556,44 @@
       <c r="AC48" s="1"/>
     </row>
     <row r="49" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
-        <f t="shared" si="1"/>
+      <c r="A49" s="20">
+        <v>47</v>
+      </c>
+      <c r="B49" s="176">
         <v>46</v>
       </c>
-      <c r="B49" s="181"/>
       <c r="C49" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
+        <v>365</v>
+      </c>
+      <c r="D49" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="E49" s="183" t="s">
+        <v>434</v>
+      </c>
+      <c r="F49" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
+      <c r="I49" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J49" s="85"/>
-      <c r="K49" s="178" t="str">
+      <c r="K49" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L49" s="179"/>
-      <c r="M49" s="205" t="s">
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L49" s="122"/>
+      <c r="M49" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="N49" s="206"/>
-      <c r="O49" s="206"/>
-      <c r="P49" s="206"/>
-      <c r="Q49" s="207"/>
+      <c r="N49" s="210"/>
+      <c r="O49" s="210"/>
+      <c r="P49" s="210"/>
+      <c r="Q49" s="211"/>
       <c r="R49" s="17"/>
       <c r="S49" s="18" t="s">
         <v>50</v>
@@ -8116,35 +8610,44 @@
       <c r="AC49" s="1"/>
     </row>
     <row r="50" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
-        <f t="shared" si="1"/>
+      <c r="A50" s="20">
+        <v>48</v>
+      </c>
+      <c r="B50" s="176">
         <v>47</v>
       </c>
-      <c r="B50" s="181"/>
       <c r="C50" s="78" t="s">
-        <v>378</v>
-      </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
+        <v>366</v>
+      </c>
+      <c r="D50" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" s="183" t="s">
+        <v>436</v>
+      </c>
+      <c r="F50" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
+      <c r="I50" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J50" s="85"/>
-      <c r="K50" s="178" t="str">
+      <c r="K50" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L50" s="179"/>
-      <c r="M50" s="205" t="s">
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L50" s="122"/>
+      <c r="M50" s="209" t="s">
         <v>96</v>
       </c>
-      <c r="N50" s="206"/>
-      <c r="O50" s="206"/>
-      <c r="P50" s="206"/>
-      <c r="Q50" s="207"/>
+      <c r="N50" s="210"/>
+      <c r="O50" s="210"/>
+      <c r="P50" s="210"/>
+      <c r="Q50" s="211"/>
       <c r="R50" s="88"/>
       <c r="S50" s="18" t="s">
         <v>97</v>
@@ -8161,35 +8664,44 @@
       <c r="AC50" s="1"/>
     </row>
     <row r="51" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
-        <f t="shared" si="1"/>
+      <c r="A51" s="20">
+        <v>49</v>
+      </c>
+      <c r="B51" s="176">
         <v>48</v>
       </c>
-      <c r="B51" s="181"/>
       <c r="C51" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
+        <v>367</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="E51" s="183" t="s">
+        <v>368</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
+      <c r="I51" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J51" s="85"/>
-      <c r="K51" s="178" t="str">
+      <c r="K51" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L51" s="179"/>
-      <c r="M51" s="205" t="s">
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L51" s="122"/>
+      <c r="M51" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="N51" s="206"/>
-      <c r="O51" s="206"/>
-      <c r="P51" s="206"/>
-      <c r="Q51" s="207"/>
+      <c r="N51" s="210"/>
+      <c r="O51" s="210"/>
+      <c r="P51" s="210"/>
+      <c r="Q51" s="211"/>
       <c r="R51" s="1"/>
       <c r="S51" s="160" t="s">
         <v>275</v>
@@ -8206,33 +8718,36 @@
       <c r="AC51" s="1"/>
     </row>
     <row r="52" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
-        <f t="shared" si="1"/>
+      <c r="A52" s="20">
+        <v>50</v>
+      </c>
+      <c r="B52" s="176">
         <v>49</v>
       </c>
-      <c r="B52" s="181"/>
       <c r="C52" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78" t="s">
-        <v>383</v>
+        <v>369</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="E52" s="183" t="s">
+        <v>440</v>
       </c>
       <c r="F52" s="79"/>
       <c r="G52" s="79"/>
       <c r="H52" s="79"/>
       <c r="I52" s="79"/>
       <c r="J52" s="85"/>
-      <c r="K52" s="178" t="str">
+      <c r="K52" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L52" s="179"/>
-      <c r="M52" s="208"/>
-      <c r="N52" s="206"/>
-      <c r="O52" s="206"/>
-      <c r="P52" s="206"/>
-      <c r="Q52" s="207"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="212"/>
+      <c r="N52" s="210"/>
+      <c r="O52" s="210"/>
+      <c r="P52" s="210"/>
+      <c r="Q52" s="211"/>
       <c r="R52" s="88"/>
       <c r="S52" s="160" t="s">
         <v>276</v>
@@ -8249,29 +8764,44 @@
       <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
-        <f t="shared" si="1"/>
+      <c r="A53" s="20">
+        <v>51</v>
+      </c>
+      <c r="B53" s="176">
         <v>50</v>
       </c>
-      <c r="B53" s="181"/>
-      <c r="D53" s="78"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
+      <c r="C53" s="178" t="s">
+        <v>439</v>
+      </c>
+      <c r="D53" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="E53" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="F53" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="79" t="s">
+        <v>120</v>
+      </c>
       <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
+      <c r="I53" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J53" s="85"/>
-      <c r="K53" s="178" t="str">
+      <c r="K53" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L53" s="179"/>
-      <c r="M53" s="205" t="s">
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L53" s="122"/>
+      <c r="M53" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="N53" s="206"/>
-      <c r="O53" s="206"/>
-      <c r="P53" s="206"/>
-      <c r="Q53" s="207"/>
+      <c r="N53" s="210"/>
+      <c r="O53" s="210"/>
+      <c r="P53" s="210"/>
+      <c r="Q53" s="211"/>
       <c r="R53" s="88"/>
       <c r="S53" s="160" t="s">
         <v>277</v>
@@ -8288,29 +8818,36 @@
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
-        <f t="shared" si="1"/>
+      <c r="A54" s="20">
+        <v>52</v>
+      </c>
+      <c r="B54" s="176">
         <v>51</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="79"/>
+      <c r="C54" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="E54" s="185" t="s">
+        <v>405</v>
+      </c>
       <c r="F54" s="79"/>
       <c r="G54" s="79"/>
       <c r="H54" s="79"/>
       <c r="I54" s="79"/>
       <c r="J54" s="85"/>
-      <c r="K54" s="178" t="str">
+      <c r="K54" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L54" s="179"/>
-      <c r="M54" s="208"/>
-      <c r="N54" s="206"/>
-      <c r="O54" s="206"/>
-      <c r="P54" s="206"/>
-      <c r="Q54" s="207"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="212"/>
+      <c r="N54" s="210"/>
+      <c r="O54" s="210"/>
+      <c r="P54" s="210"/>
+      <c r="Q54" s="211"/>
       <c r="R54" s="1"/>
       <c r="S54" s="161" t="s">
         <v>109</v>
@@ -8327,31 +8864,44 @@
       <c r="AC54" s="1"/>
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
-        <f t="shared" si="1"/>
+      <c r="A55" s="20">
+        <v>53</v>
+      </c>
+      <c r="B55" s="176">
         <v>52</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
+      <c r="C55" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="E55" s="185" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
+      <c r="I55" s="79" t="s">
+        <v>291</v>
+      </c>
       <c r="J55" s="85"/>
-      <c r="K55" s="178" t="str">
+      <c r="K55" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L55" s="179"/>
-      <c r="M55" s="205" t="s">
+        <v>AccuracyMajor</v>
+      </c>
+      <c r="L55" s="122"/>
+      <c r="M55" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="N55" s="206"/>
-      <c r="O55" s="206"/>
-      <c r="P55" s="206"/>
-      <c r="Q55" s="207"/>
+      <c r="N55" s="210"/>
+      <c r="O55" s="210"/>
+      <c r="P55" s="210"/>
+      <c r="Q55" s="211"/>
       <c r="R55" s="17"/>
       <c r="S55" s="21"/>
       <c r="T55" s="1"/>
@@ -8366,29 +8916,42 @@
       <c r="AC55" s="1"/>
     </row>
     <row r="56" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
-        <f t="shared" si="1"/>
+      <c r="A56" s="20">
+        <v>54</v>
+      </c>
+      <c r="B56" s="176">
         <v>53</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+      <c r="C56" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="E56" s="185" t="s">
+        <v>409</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="79" t="s">
+        <v>121</v>
+      </c>
       <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
+      <c r="I56" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J56" s="85"/>
-      <c r="K56" s="178" t="str">
+      <c r="K56" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L56" s="179"/>
-      <c r="M56" s="208"/>
-      <c r="N56" s="206"/>
-      <c r="O56" s="206"/>
-      <c r="P56" s="206"/>
-      <c r="Q56" s="207"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L56" s="122"/>
+      <c r="M56" s="212"/>
+      <c r="N56" s="210"/>
+      <c r="O56" s="210"/>
+      <c r="P56" s="210"/>
+      <c r="Q56" s="211"/>
       <c r="R56" s="17"/>
       <c r="S56" s="21"/>
       <c r="T56" s="1"/>
@@ -8403,31 +8966,38 @@
       <c r="AC56" s="1"/>
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
-        <f t="shared" si="1"/>
+      <c r="A57" s="20">
+        <v>55</v>
+      </c>
+      <c r="B57" s="176">
         <v>54</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
+      <c r="C57" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="E57" s="185" t="s">
+        <v>411</v>
+      </c>
       <c r="F57" s="79"/>
       <c r="G57" s="79"/>
       <c r="H57" s="79"/>
       <c r="I57" s="79"/>
       <c r="J57" s="85"/>
-      <c r="K57" s="178" t="str">
+      <c r="K57" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L57" s="179"/>
-      <c r="M57" s="205" t="s">
+      <c r="L57" s="122"/>
+      <c r="M57" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="N57" s="206"/>
-      <c r="O57" s="206"/>
-      <c r="P57" s="206"/>
-      <c r="Q57" s="207"/>
+      <c r="N57" s="210"/>
+      <c r="O57" s="210"/>
+      <c r="P57" s="210"/>
+      <c r="Q57" s="211"/>
       <c r="R57" s="88"/>
       <c r="S57" s="21"/>
       <c r="T57" s="1"/>
@@ -8442,29 +9012,36 @@
       <c r="AC57" s="1"/>
     </row>
     <row r="58" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
-        <f t="shared" si="1"/>
+      <c r="A58" s="20">
+        <v>56</v>
+      </c>
+      <c r="B58" s="176">
         <v>55</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
+      <c r="C58" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="E58" s="185" t="s">
+        <v>413</v>
+      </c>
       <c r="F58" s="79"/>
       <c r="G58" s="79"/>
       <c r="H58" s="79"/>
       <c r="I58" s="79"/>
       <c r="J58" s="85"/>
-      <c r="K58" s="178" t="str">
+      <c r="K58" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L58" s="179"/>
-      <c r="M58" s="209"/>
-      <c r="N58" s="210"/>
-      <c r="O58" s="210"/>
-      <c r="P58" s="210"/>
-      <c r="Q58" s="211"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="213"/>
+      <c r="N58" s="214"/>
+      <c r="O58" s="214"/>
+      <c r="P58" s="214"/>
+      <c r="Q58" s="215"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -8479,24 +9056,31 @@
       <c r="AC58" s="1"/>
     </row>
     <row r="59" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
-        <f t="shared" si="1"/>
+      <c r="A59" s="20">
+        <v>57</v>
+      </c>
+      <c r="B59" s="176">
         <v>56</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
+      <c r="C59" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="E59" s="185" t="s">
+        <v>415</v>
+      </c>
       <c r="F59" s="79"/>
       <c r="G59" s="79"/>
       <c r="H59" s="79"/>
       <c r="I59" s="79"/>
       <c r="J59" s="85"/>
-      <c r="K59" s="178" t="str">
+      <c r="K59" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L59" s="179"/>
+      <c r="L59" s="122"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -8516,24 +9100,35 @@
       <c r="AC59" s="1"/>
     </row>
     <row r="60" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
-        <f t="shared" si="1"/>
+      <c r="A60" s="20">
+        <v>58</v>
+      </c>
+      <c r="B60" s="176">
         <v>57</v>
       </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
+      <c r="C60" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="D60" s="179" t="s">
+        <v>448</v>
+      </c>
+      <c r="E60" s="185" t="s">
+        <v>417</v>
+      </c>
+      <c r="F60" s="79" t="s">
+        <v>139</v>
+      </c>
       <c r="G60" s="79"/>
       <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
+      <c r="I60" s="79" t="s">
+        <v>290</v>
+      </c>
       <c r="J60" s="85"/>
-      <c r="K60" s="178" t="str">
+      <c r="K60" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L60" s="179"/>
+        <v>FluencyCritical</v>
+      </c>
+      <c r="L60" s="122"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -8553,24 +9148,31 @@
       <c r="AC60" s="1"/>
     </row>
     <row r="61" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
-        <f t="shared" si="1"/>
+      <c r="A61" s="20">
+        <v>59</v>
+      </c>
+      <c r="B61" s="176">
         <v>58</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
+      <c r="C61" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" s="185" t="s">
+        <v>419</v>
+      </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
       <c r="H61" s="79"/>
       <c r="I61" s="79"/>
       <c r="J61" s="85"/>
-      <c r="K61" s="178" t="str">
+      <c r="K61" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L61" s="179"/>
+      <c r="L61" s="122"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -8590,24 +9192,37 @@
       <c r="AC61" s="1"/>
     </row>
     <row r="62" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
-        <f t="shared" si="1"/>
+      <c r="A62" s="20">
+        <v>60</v>
+      </c>
+      <c r="B62" s="176">
         <v>59</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
+      <c r="C62" s="79" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="E62" s="185" t="s">
+        <v>421</v>
+      </c>
+      <c r="F62" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="79" t="s">
+        <v>119</v>
+      </c>
       <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
+      <c r="I62" s="79" t="s">
+        <v>294</v>
+      </c>
       <c r="J62" s="85"/>
-      <c r="K62" s="178" t="str">
+      <c r="K62" s="122" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L62" s="179"/>
+        <v>AccuracyMinor</v>
+      </c>
+      <c r="L62" s="122"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -8627,24 +9242,31 @@
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="70">
-        <f t="shared" si="1"/>
+      <c r="A63" s="20">
+        <v>61</v>
+      </c>
+      <c r="B63" s="176">
         <v>60</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
+      <c r="C63" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="E63" s="185" t="s">
+        <v>423</v>
+      </c>
       <c r="F63" s="79"/>
       <c r="G63" s="79"/>
       <c r="H63" s="79"/>
       <c r="I63" s="79"/>
       <c r="J63" s="85"/>
-      <c r="K63" s="178" t="str">
+      <c r="K63" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L63" s="179"/>
+      <c r="L63" s="122"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -8665,23 +9287,23 @@
     </row>
     <row r="64" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f t="shared" ref="A64:A68" si="1">A63+1</f>
+        <v>62</v>
       </c>
       <c r="B64" s="71"/>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
-      <c r="E64" s="79"/>
+      <c r="E64" s="185"/>
       <c r="F64" s="79"/>
       <c r="G64" s="79"/>
       <c r="H64" s="79"/>
       <c r="I64" s="79"/>
       <c r="J64" s="85"/>
-      <c r="K64" s="178" t="str">
+      <c r="K64" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L64" s="179"/>
+      <c r="L64" s="122"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -8703,22 +9325,22 @@
     <row r="65" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="70">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="78"/>
       <c r="D65" s="78"/>
-      <c r="E65" s="79"/>
+      <c r="E65" s="185"/>
       <c r="F65" s="79"/>
       <c r="G65" s="79"/>
       <c r="H65" s="79"/>
       <c r="I65" s="79"/>
       <c r="J65" s="85"/>
-      <c r="K65" s="178" t="str">
+      <c r="K65" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L65" s="179"/>
+      <c r="L65" s="122"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -8740,22 +9362,22 @@
     <row r="66" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="71"/>
       <c r="C66" s="78"/>
       <c r="D66" s="78"/>
-      <c r="E66" s="79"/>
+      <c r="E66" s="185"/>
       <c r="F66" s="79"/>
       <c r="G66" s="79"/>
       <c r="H66" s="79"/>
       <c r="I66" s="79"/>
       <c r="J66" s="85"/>
-      <c r="K66" s="178" t="str">
+      <c r="K66" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L66" s="179"/>
+      <c r="L66" s="122"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -8777,22 +9399,22 @@
     <row r="67" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="71"/>
       <c r="C67" s="78"/>
       <c r="D67" s="78"/>
-      <c r="E67" s="79"/>
+      <c r="E67" s="185"/>
       <c r="F67" s="79"/>
       <c r="G67" s="79"/>
       <c r="H67" s="79"/>
       <c r="I67" s="79"/>
       <c r="J67" s="85"/>
-      <c r="K67" s="178" t="str">
+      <c r="K67" s="122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L67" s="179"/>
+      <c r="L67" s="122"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -8814,22 +9436,22 @@
     <row r="68" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="71"/>
       <c r="C68" s="78"/>
       <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
+      <c r="E68" s="185"/>
       <c r="F68" s="79"/>
       <c r="G68" s="79"/>
       <c r="H68" s="79"/>
       <c r="I68" s="79"/>
       <c r="J68" s="85"/>
-      <c r="K68" s="178" t="str">
+      <c r="K68" s="122" t="str">
         <f t="shared" ref="K68:K103" si="2">CONCATENATE(F68,I68)</f>
         <v/>
       </c>
-      <c r="L68" s="179"/>
+      <c r="L68" s="122"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -8851,22 +9473,22 @@
     <row r="69" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
         <f t="shared" ref="A69:A103" si="3">A68+1</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="78"/>
       <c r="D69" s="78"/>
-      <c r="E69" s="79"/>
+      <c r="E69" s="185"/>
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
       <c r="H69" s="79"/>
       <c r="I69" s="79"/>
       <c r="J69" s="85"/>
-      <c r="K69" s="178" t="str">
+      <c r="K69" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L69" s="179"/>
+      <c r="L69" s="122"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -8888,22 +9510,22 @@
     <row r="70" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="71"/>
       <c r="C70" s="78"/>
       <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
+      <c r="E70" s="185"/>
       <c r="F70" s="79"/>
       <c r="G70" s="79"/>
       <c r="H70" s="79"/>
       <c r="I70" s="79"/>
       <c r="J70" s="85"/>
-      <c r="K70" s="178" t="str">
+      <c r="K70" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L70" s="179"/>
+      <c r="L70" s="122"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -8925,29 +9547,29 @@
     <row r="71" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="71"/>
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
-      <c r="E71" s="79"/>
+      <c r="E71" s="185"/>
       <c r="F71" s="79"/>
       <c r="G71" s="79"/>
       <c r="H71" s="79"/>
       <c r="I71" s="79"/>
       <c r="J71" s="85"/>
-      <c r="K71" s="178" t="str">
+      <c r="K71" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L71" s="179"/>
-      <c r="M71" s="205" t="s">
+      <c r="L71" s="122"/>
+      <c r="M71" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="N71" s="206"/>
-      <c r="O71" s="206"/>
-      <c r="P71" s="206"/>
-      <c r="Q71" s="207"/>
+      <c r="N71" s="210"/>
+      <c r="O71" s="210"/>
+      <c r="P71" s="210"/>
+      <c r="Q71" s="211"/>
       <c r="R71" s="17"/>
       <c r="S71" s="21"/>
       <c r="T71" s="1"/>
@@ -8964,27 +9586,27 @@
     <row r="72" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="78"/>
       <c r="D72" s="78"/>
-      <c r="E72" s="79"/>
+      <c r="E72" s="185"/>
       <c r="F72" s="79"/>
       <c r="G72" s="79"/>
       <c r="H72" s="79"/>
       <c r="I72" s="79"/>
       <c r="J72" s="85"/>
-      <c r="K72" s="178" t="str">
+      <c r="K72" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L72" s="179"/>
-      <c r="M72" s="208"/>
-      <c r="N72" s="206"/>
-      <c r="O72" s="206"/>
-      <c r="P72" s="206"/>
-      <c r="Q72" s="207"/>
+      <c r="L72" s="122"/>
+      <c r="M72" s="212"/>
+      <c r="N72" s="210"/>
+      <c r="O72" s="210"/>
+      <c r="P72" s="210"/>
+      <c r="Q72" s="211"/>
       <c r="R72" s="17"/>
       <c r="S72" s="21"/>
       <c r="T72" s="1"/>
@@ -9001,29 +9623,29 @@
     <row r="73" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
-      <c r="E73" s="79"/>
+      <c r="E73" s="185"/>
       <c r="F73" s="79"/>
       <c r="G73" s="79"/>
       <c r="H73" s="79"/>
       <c r="I73" s="79"/>
       <c r="J73" s="85"/>
-      <c r="K73" s="178" t="str">
+      <c r="K73" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L73" s="179"/>
-      <c r="M73" s="205" t="s">
+      <c r="L73" s="122"/>
+      <c r="M73" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="N73" s="206"/>
-      <c r="O73" s="206"/>
-      <c r="P73" s="206"/>
-      <c r="Q73" s="207"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="210"/>
+      <c r="P73" s="210"/>
+      <c r="Q73" s="211"/>
       <c r="R73" s="88"/>
       <c r="S73" s="21"/>
       <c r="T73" s="1"/>
@@ -9040,27 +9662,27 @@
     <row r="74" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
-      <c r="E74" s="79"/>
+      <c r="E74" s="185"/>
       <c r="F74" s="79"/>
       <c r="G74" s="79"/>
       <c r="H74" s="79"/>
       <c r="I74" s="79"/>
       <c r="J74" s="85"/>
-      <c r="K74" s="178" t="str">
+      <c r="K74" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L74" s="179"/>
-      <c r="M74" s="209"/>
-      <c r="N74" s="210"/>
-      <c r="O74" s="210"/>
-      <c r="P74" s="210"/>
-      <c r="Q74" s="211"/>
+      <c r="L74" s="122"/>
+      <c r="M74" s="213"/>
+      <c r="N74" s="214"/>
+      <c r="O74" s="214"/>
+      <c r="P74" s="214"/>
+      <c r="Q74" s="215"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -9077,22 +9699,22 @@
     <row r="75" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="78"/>
       <c r="D75" s="78"/>
-      <c r="E75" s="79"/>
+      <c r="E75" s="185"/>
       <c r="F75" s="79"/>
       <c r="G75" s="79"/>
       <c r="H75" s="79"/>
       <c r="I75" s="79"/>
       <c r="J75" s="85"/>
-      <c r="K75" s="178" t="str">
+      <c r="K75" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L75" s="179"/>
+      <c r="L75" s="122"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -9114,22 +9736,22 @@
     <row r="76" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="71"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
-      <c r="E76" s="79"/>
+      <c r="E76" s="185"/>
       <c r="F76" s="79"/>
       <c r="G76" s="79"/>
       <c r="H76" s="79"/>
       <c r="I76" s="79"/>
       <c r="J76" s="85"/>
-      <c r="K76" s="178" t="str">
+      <c r="K76" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L76" s="179"/>
+      <c r="L76" s="122"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -9151,22 +9773,22 @@
     <row r="77" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
-      <c r="E77" s="79"/>
+      <c r="E77" s="185"/>
       <c r="F77" s="79"/>
       <c r="G77" s="79"/>
       <c r="H77" s="79"/>
       <c r="I77" s="79"/>
       <c r="J77" s="85"/>
-      <c r="K77" s="178" t="str">
+      <c r="K77" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L77" s="179"/>
+      <c r="L77" s="122"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -9188,22 +9810,22 @@
     <row r="78" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="78"/>
       <c r="D78" s="78"/>
-      <c r="E78" s="79"/>
+      <c r="E78" s="185"/>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
       <c r="H78" s="79"/>
       <c r="I78" s="79"/>
       <c r="J78" s="85"/>
-      <c r="K78" s="178" t="str">
+      <c r="K78" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L78" s="179"/>
+      <c r="L78" s="122"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -9225,22 +9847,22 @@
     <row r="79" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="70">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="78"/>
       <c r="D79" s="78"/>
-      <c r="E79" s="79"/>
+      <c r="E79" s="185"/>
       <c r="F79" s="79"/>
       <c r="G79" s="79"/>
       <c r="H79" s="79"/>
       <c r="I79" s="79"/>
       <c r="J79" s="85"/>
-      <c r="K79" s="178" t="str">
+      <c r="K79" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L79" s="179"/>
+      <c r="L79" s="122"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -9262,22 +9884,22 @@
     <row r="80" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="78"/>
       <c r="D80" s="78"/>
-      <c r="E80" s="79"/>
+      <c r="E80" s="185"/>
       <c r="F80" s="79"/>
       <c r="G80" s="79"/>
       <c r="H80" s="79"/>
       <c r="I80" s="79"/>
       <c r="J80" s="85"/>
-      <c r="K80" s="178" t="str">
+      <c r="K80" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L80" s="179"/>
+      <c r="L80" s="122"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -9299,22 +9921,22 @@
     <row r="81" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="78"/>
       <c r="D81" s="78"/>
-      <c r="E81" s="79"/>
+      <c r="E81" s="185"/>
       <c r="F81" s="79"/>
       <c r="G81" s="79"/>
       <c r="H81" s="79"/>
       <c r="I81" s="79"/>
       <c r="J81" s="85"/>
-      <c r="K81" s="178" t="str">
+      <c r="K81" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L81" s="179"/>
+      <c r="L81" s="122"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -9336,22 +9958,22 @@
     <row r="82" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="71"/>
       <c r="C82" s="78"/>
       <c r="D82" s="78"/>
-      <c r="E82" s="79"/>
+      <c r="E82" s="185"/>
       <c r="F82" s="79"/>
       <c r="G82" s="79"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="85"/>
-      <c r="K82" s="178" t="str">
+      <c r="K82" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L82" s="179"/>
+      <c r="L82" s="122"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -9373,22 +9995,22 @@
     <row r="83" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="71"/>
       <c r="C83" s="78"/>
       <c r="D83" s="78"/>
-      <c r="E83" s="79"/>
+      <c r="E83" s="185"/>
       <c r="F83" s="79"/>
       <c r="G83" s="79"/>
       <c r="H83" s="79"/>
       <c r="I83" s="79"/>
       <c r="J83" s="85"/>
-      <c r="K83" s="178" t="str">
+      <c r="K83" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L83" s="179"/>
+      <c r="L83" s="122"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -9410,22 +10032,22 @@
     <row r="84" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="78"/>
       <c r="D84" s="78"/>
-      <c r="E84" s="79"/>
+      <c r="E84" s="185"/>
       <c r="F84" s="79"/>
       <c r="G84" s="79"/>
       <c r="H84" s="79"/>
       <c r="I84" s="79"/>
       <c r="J84" s="85"/>
-      <c r="K84" s="178" t="str">
+      <c r="K84" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L84" s="179"/>
+      <c r="L84" s="122"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -9447,22 +10069,22 @@
     <row r="85" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="78"/>
       <c r="D85" s="78"/>
-      <c r="E85" s="79"/>
+      <c r="E85" s="185"/>
       <c r="F85" s="79"/>
       <c r="G85" s="79"/>
       <c r="H85" s="79"/>
       <c r="I85" s="79"/>
       <c r="J85" s="85"/>
-      <c r="K85" s="178" t="str">
+      <c r="K85" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L85" s="179"/>
+      <c r="L85" s="122"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -9484,22 +10106,22 @@
     <row r="86" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="78"/>
       <c r="D86" s="78"/>
-      <c r="E86" s="79"/>
+      <c r="E86" s="185"/>
       <c r="F86" s="79"/>
       <c r="G86" s="79"/>
       <c r="H86" s="79"/>
       <c r="I86" s="79"/>
       <c r="J86" s="85"/>
-      <c r="K86" s="178" t="str">
+      <c r="K86" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L86" s="179"/>
+      <c r="L86" s="122"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -9521,29 +10143,29 @@
     <row r="87" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="78"/>
       <c r="D87" s="78"/>
-      <c r="E87" s="79"/>
+      <c r="E87" s="185"/>
       <c r="F87" s="79"/>
       <c r="G87" s="79"/>
       <c r="H87" s="79"/>
       <c r="I87" s="79"/>
       <c r="J87" s="85"/>
-      <c r="K87" s="178" t="str">
+      <c r="K87" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L87" s="179"/>
-      <c r="M87" s="205" t="s">
+      <c r="L87" s="122"/>
+      <c r="M87" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="N87" s="206"/>
-      <c r="O87" s="206"/>
-      <c r="P87" s="206"/>
-      <c r="Q87" s="207"/>
+      <c r="N87" s="210"/>
+      <c r="O87" s="210"/>
+      <c r="P87" s="210"/>
+      <c r="Q87" s="211"/>
       <c r="R87" s="17"/>
       <c r="S87" s="21"/>
       <c r="T87" s="1"/>
@@ -9560,27 +10182,27 @@
     <row r="88" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="71"/>
       <c r="C88" s="78"/>
       <c r="D88" s="78"/>
-      <c r="E88" s="79"/>
+      <c r="E88" s="185"/>
       <c r="F88" s="79"/>
       <c r="G88" s="79"/>
       <c r="H88" s="79"/>
       <c r="I88" s="79"/>
       <c r="J88" s="85"/>
-      <c r="K88" s="178" t="str">
+      <c r="K88" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L88" s="179"/>
-      <c r="M88" s="208"/>
-      <c r="N88" s="206"/>
-      <c r="O88" s="206"/>
-      <c r="P88" s="206"/>
-      <c r="Q88" s="207"/>
+      <c r="L88" s="122"/>
+      <c r="M88" s="212"/>
+      <c r="N88" s="210"/>
+      <c r="O88" s="210"/>
+      <c r="P88" s="210"/>
+      <c r="Q88" s="211"/>
       <c r="R88" s="17"/>
       <c r="S88" s="21"/>
       <c r="T88" s="1"/>
@@ -9597,29 +10219,29 @@
     <row r="89" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="70">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="71"/>
       <c r="C89" s="78"/>
       <c r="D89" s="78"/>
-      <c r="E89" s="79"/>
+      <c r="E89" s="185"/>
       <c r="F89" s="79"/>
       <c r="G89" s="79"/>
       <c r="H89" s="79"/>
       <c r="I89" s="79"/>
       <c r="J89" s="85"/>
-      <c r="K89" s="178" t="str">
+      <c r="K89" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L89" s="179"/>
-      <c r="M89" s="205" t="s">
+      <c r="L89" s="122"/>
+      <c r="M89" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="N89" s="206"/>
-      <c r="O89" s="206"/>
-      <c r="P89" s="206"/>
-      <c r="Q89" s="207"/>
+      <c r="N89" s="210"/>
+      <c r="O89" s="210"/>
+      <c r="P89" s="210"/>
+      <c r="Q89" s="211"/>
       <c r="R89" s="88"/>
       <c r="S89" s="21"/>
       <c r="T89" s="1"/>
@@ -9636,27 +10258,27 @@
     <row r="90" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="78"/>
       <c r="D90" s="78"/>
-      <c r="E90" s="79"/>
+      <c r="E90" s="185"/>
       <c r="F90" s="79"/>
       <c r="G90" s="79"/>
       <c r="H90" s="79"/>
       <c r="I90" s="79"/>
       <c r="J90" s="85"/>
-      <c r="K90" s="178" t="str">
+      <c r="K90" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L90" s="179"/>
-      <c r="M90" s="209"/>
-      <c r="N90" s="210"/>
-      <c r="O90" s="210"/>
-      <c r="P90" s="210"/>
-      <c r="Q90" s="211"/>
+      <c r="L90" s="122"/>
+      <c r="M90" s="213"/>
+      <c r="N90" s="214"/>
+      <c r="O90" s="214"/>
+      <c r="P90" s="214"/>
+      <c r="Q90" s="215"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -9673,22 +10295,22 @@
     <row r="91" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="70">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="71"/>
       <c r="C91" s="78"/>
       <c r="D91" s="78"/>
-      <c r="E91" s="79"/>
+      <c r="E91" s="185"/>
       <c r="F91" s="79"/>
       <c r="G91" s="79"/>
       <c r="H91" s="79"/>
       <c r="I91" s="79"/>
       <c r="J91" s="85"/>
-      <c r="K91" s="178" t="str">
+      <c r="K91" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L91" s="179"/>
+      <c r="L91" s="122"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -9710,22 +10332,22 @@
     <row r="92" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="71"/>
       <c r="C92" s="78"/>
       <c r="D92" s="78"/>
-      <c r="E92" s="79"/>
+      <c r="E92" s="185"/>
       <c r="F92" s="79"/>
       <c r="G92" s="79"/>
       <c r="H92" s="79"/>
       <c r="I92" s="79"/>
       <c r="J92" s="85"/>
-      <c r="K92" s="178" t="str">
+      <c r="K92" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L92" s="179"/>
+      <c r="L92" s="122"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -9747,22 +10369,22 @@
     <row r="93" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="70">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="78"/>
       <c r="D93" s="78"/>
-      <c r="E93" s="79"/>
+      <c r="E93" s="185"/>
       <c r="F93" s="79"/>
       <c r="G93" s="79"/>
       <c r="H93" s="79"/>
       <c r="I93" s="79"/>
       <c r="J93" s="85"/>
-      <c r="K93" s="178" t="str">
+      <c r="K93" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L93" s="179"/>
+      <c r="L93" s="122"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -9784,22 +10406,22 @@
     <row r="94" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="78"/>
       <c r="D94" s="78"/>
-      <c r="E94" s="79"/>
+      <c r="E94" s="185"/>
       <c r="F94" s="79"/>
       <c r="G94" s="79"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="85"/>
-      <c r="K94" s="178" t="str">
+      <c r="K94" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L94" s="179"/>
+      <c r="L94" s="122"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -9821,22 +10443,22 @@
     <row r="95" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="70">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="78"/>
       <c r="D95" s="78"/>
-      <c r="E95" s="79"/>
+      <c r="E95" s="185"/>
       <c r="F95" s="79"/>
       <c r="G95" s="79"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="85"/>
-      <c r="K95" s="178" t="str">
+      <c r="K95" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L95" s="179"/>
+      <c r="L95" s="122"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -9858,22 +10480,22 @@
     <row r="96" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="78"/>
       <c r="D96" s="78"/>
-      <c r="E96" s="79"/>
+      <c r="E96" s="185"/>
       <c r="F96" s="79"/>
       <c r="G96" s="79"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="85"/>
-      <c r="K96" s="178" t="str">
+      <c r="K96" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L96" s="179"/>
+      <c r="L96" s="122"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -9895,22 +10517,22 @@
     <row r="97" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="70">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="78"/>
       <c r="D97" s="78"/>
-      <c r="E97" s="79"/>
+      <c r="E97" s="185"/>
       <c r="F97" s="79"/>
       <c r="G97" s="79"/>
       <c r="H97" s="79"/>
       <c r="I97" s="79"/>
       <c r="J97" s="85"/>
-      <c r="K97" s="178" t="str">
+      <c r="K97" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L97" s="179"/>
+      <c r="L97" s="122"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -9932,22 +10554,22 @@
     <row r="98" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="70">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="78"/>
       <c r="D98" s="78"/>
-      <c r="E98" s="79"/>
+      <c r="E98" s="185"/>
       <c r="F98" s="79"/>
       <c r="G98" s="79"/>
       <c r="H98" s="79"/>
       <c r="I98" s="79"/>
       <c r="J98" s="85"/>
-      <c r="K98" s="178" t="str">
+      <c r="K98" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L98" s="179"/>
+      <c r="L98" s="122"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -9969,22 +10591,22 @@
     <row r="99" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="70">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="71"/>
       <c r="C99" s="78"/>
       <c r="D99" s="78"/>
-      <c r="E99" s="79"/>
+      <c r="E99" s="185"/>
       <c r="F99" s="79"/>
       <c r="G99" s="79"/>
       <c r="H99" s="79"/>
       <c r="I99" s="79"/>
       <c r="J99" s="85"/>
-      <c r="K99" s="178" t="str">
+      <c r="K99" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L99" s="179"/>
+      <c r="L99" s="122"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -10006,22 +10628,22 @@
     <row r="100" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="70">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="71"/>
       <c r="C100" s="78"/>
       <c r="D100" s="78"/>
-      <c r="E100" s="79"/>
+      <c r="E100" s="185"/>
       <c r="F100" s="79"/>
       <c r="G100" s="79"/>
       <c r="H100" s="79"/>
       <c r="I100" s="79"/>
       <c r="J100" s="85"/>
-      <c r="K100" s="178" t="str">
+      <c r="K100" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L100" s="179"/>
+      <c r="L100" s="122"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -10043,22 +10665,22 @@
     <row r="101" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="70">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="78"/>
       <c r="D101" s="78"/>
-      <c r="E101" s="79"/>
+      <c r="E101" s="185"/>
       <c r="F101" s="79"/>
       <c r="G101" s="79"/>
       <c r="H101" s="79"/>
       <c r="I101" s="79"/>
       <c r="J101" s="85"/>
-      <c r="K101" s="178" t="str">
+      <c r="K101" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L101" s="179"/>
+      <c r="L101" s="122"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -10080,22 +10702,22 @@
     <row r="102" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="70">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="78"/>
       <c r="D102" s="78"/>
-      <c r="E102" s="79"/>
+      <c r="E102" s="185"/>
       <c r="F102" s="79"/>
       <c r="G102" s="79"/>
       <c r="H102" s="79"/>
       <c r="I102" s="79"/>
       <c r="J102" s="85"/>
-      <c r="K102" s="178" t="str">
+      <c r="K102" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L102" s="179"/>
+      <c r="L102" s="122"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -10117,22 +10739,22 @@
     <row r="103" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="78"/>
       <c r="D103" s="78"/>
-      <c r="E103" s="79"/>
+      <c r="E103" s="185"/>
       <c r="F103" s="79"/>
       <c r="G103" s="79"/>
       <c r="H103" s="79"/>
       <c r="I103" s="79"/>
       <c r="J103" s="85"/>
-      <c r="K103" s="178" t="str">
+      <c r="K103" s="122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L103" s="179"/>
+      <c r="L103" s="122"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -10498,7 +11120,7 @@
       </c>
       <c r="D12" s="67">
         <f>COUNTIFS( ReviewEnvironment!K3:K103,"accuracyNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"accuracyMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"accuracyMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"accuracyCritical")</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E12" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyNeutral")</f>
@@ -10506,11 +11128,11 @@
       </c>
       <c r="F12" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyMinor")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G12" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyMajor")</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H12" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyCritical")</f>
@@ -10518,7 +11140,7 @@
       </c>
       <c r="I12" s="61">
         <f>E12*PenaltiesThresholds!B4+F12*PenaltiesThresholds!B5+G12*PenaltiesThresholds!B6+H12*PenaltiesThresholds!B7</f>
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="J12" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"accuracyKudos")</f>
@@ -10542,7 +11164,7 @@
       </c>
       <c r="D13" s="67">
         <f>COUNTIFS( ReviewEnvironment!K3:K103,"fluencyNeutral")+COUNTIFS( ReviewEnvironment!K3:K103,"fluencyMinor")+COUNTIFS( ReviewEnvironment!K3:K103,"fluencyMajor")+COUNTIFS( ReviewEnvironment!K3:K103,"fluencyCritical")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyNeutral")</f>
@@ -10558,11 +11180,11 @@
       </c>
       <c r="H13" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyCritical")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="61">
         <f>E13*PenaltiesThresholds!B4+F13*PenaltiesThresholds!B5+G13*PenaltiesThresholds!B6+H13*PenaltiesThresholds!B7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13" s="61">
         <f>COUNTIFS(ReviewEnvironment!$K$3:$K$103,"fluencyKudos")</f>
@@ -10892,7 +11514,7 @@
       </c>
       <c r="D22" s="104">
         <f t="shared" ref="D22:J22" si="0">SUM(D12:D21)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E22" s="107">
         <f t="shared" si="0"/>
@@ -10900,19 +11522,19 @@
       </c>
       <c r="F22" s="107">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G22" s="107">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H22" s="108">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="108">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="J22" s="108">
         <f t="shared" si="0"/>
@@ -11090,10 +11712,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="188"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="21"/>
@@ -11196,7 +11818,7 @@
     </row>
     <row r="4" spans="1:29" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="228" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="64"/>
@@ -11233,7 +11855,7 @@
     </row>
     <row r="5" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
-      <c r="B5" s="225"/>
+      <c r="B5" s="229"/>
       <c r="C5" s="64" t="s">
         <v>119</v>
       </c>
@@ -11270,7 +11892,7 @@
     </row>
     <row r="6" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="59"/>
-      <c r="B6" s="225"/>
+      <c r="B6" s="229"/>
       <c r="C6" s="64" t="s">
         <v>120</v>
       </c>
@@ -11307,7 +11929,7 @@
     </row>
     <row r="7" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="59"/>
-      <c r="B7" s="225"/>
+      <c r="B7" s="229"/>
       <c r="C7" s="64" t="s">
         <v>121</v>
       </c>
@@ -11344,7 +11966,7 @@
     </row>
     <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="59"/>
-      <c r="B8" s="225"/>
+      <c r="B8" s="229"/>
       <c r="C8" s="64" t="s">
         <v>122</v>
       </c>
@@ -11381,7 +12003,7 @@
     </row>
     <row r="9" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="59"/>
-      <c r="B9" s="225"/>
+      <c r="B9" s="229"/>
       <c r="C9" s="64" t="s">
         <v>123</v>
       </c>
@@ -11418,7 +12040,7 @@
     </row>
     <row r="10" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="59"/>
-      <c r="B10" s="225"/>
+      <c r="B10" s="229"/>
       <c r="C10" s="64" t="s">
         <v>86</v>
       </c>
@@ -11455,7 +12077,7 @@
     </row>
     <row r="11" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A11" s="59"/>
-      <c r="B11" s="226"/>
+      <c r="B11" s="230"/>
       <c r="C11" s="64" t="s">
         <v>124</v>
       </c>
@@ -11494,7 +12116,7 @@
       <c r="A12" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="215" t="s">
+      <c r="B12" s="219" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="113"/>
@@ -11531,7 +12153,7 @@
     </row>
     <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="59"/>
-      <c r="B13" s="222"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="113" t="s">
         <v>140</v>
       </c>
@@ -11568,7 +12190,7 @@
     </row>
     <row r="14" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="59"/>
-      <c r="B14" s="222"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="113" t="s">
         <v>141</v>
       </c>
@@ -11605,7 +12227,7 @@
     </row>
     <row r="15" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
-      <c r="B15" s="222"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="113" t="s">
         <v>142</v>
       </c>
@@ -11642,7 +12264,7 @@
     </row>
     <row r="16" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="59"/>
-      <c r="B16" s="222"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="113" t="s">
         <v>143</v>
       </c>
@@ -11679,7 +12301,7 @@
     </row>
     <row r="17" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="59"/>
-      <c r="B17" s="222"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="113" t="s">
         <v>144</v>
       </c>
@@ -11716,7 +12338,7 @@
     </row>
     <row r="18" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="59"/>
-      <c r="B18" s="222"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="113" t="s">
         <v>145</v>
       </c>
@@ -11753,7 +12375,7 @@
     </row>
     <row r="19" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="59"/>
-      <c r="B19" s="223"/>
+      <c r="B19" s="227"/>
       <c r="C19" s="113" t="s">
         <v>146</v>
       </c>
@@ -11790,7 +12412,7 @@
     </row>
     <row r="20" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="59"/>
-      <c r="B20" s="221" t="s">
+      <c r="B20" s="225" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="64"/>
@@ -11827,7 +12449,7 @@
     </row>
     <row r="21" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="59"/>
-      <c r="B21" s="222"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="113" t="s">
         <v>147</v>
       </c>
@@ -11864,7 +12486,7 @@
     </row>
     <row r="22" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="59"/>
-      <c r="B22" s="223"/>
+      <c r="B22" s="227"/>
       <c r="C22" s="113" t="s">
         <v>148</v>
       </c>
@@ -11901,7 +12523,7 @@
     </row>
     <row r="23" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="59"/>
-      <c r="B23" s="221" t="s">
+      <c r="B23" s="225" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="64"/>
@@ -11938,7 +12560,7 @@
     </row>
     <row r="24" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="59"/>
-      <c r="B24" s="222"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="113" t="s">
         <v>152</v>
       </c>
@@ -11975,7 +12597,7 @@
     </row>
     <row r="25" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="59"/>
-      <c r="B25" s="222"/>
+      <c r="B25" s="226"/>
       <c r="C25" s="113" t="s">
         <v>153</v>
       </c>
@@ -12012,7 +12634,7 @@
     </row>
     <row r="26" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="59"/>
-      <c r="B26" s="222"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="113" t="s">
         <v>154</v>
       </c>
@@ -12049,7 +12671,7 @@
     </row>
     <row r="27" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="59"/>
-      <c r="B27" s="222"/>
+      <c r="B27" s="226"/>
       <c r="C27" s="113" t="s">
         <v>155</v>
       </c>
@@ -12086,7 +12708,7 @@
     </row>
     <row r="28" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="59"/>
-      <c r="B28" s="223"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="113" t="s">
         <v>156</v>
       </c>
@@ -12123,7 +12745,7 @@
     </row>
     <row r="29" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="59"/>
-      <c r="B29" s="215" t="s">
+      <c r="B29" s="219" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="113"/>
@@ -12160,7 +12782,7 @@
     </row>
     <row r="30" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="59"/>
-      <c r="B30" s="216"/>
+      <c r="B30" s="220"/>
       <c r="C30" s="113" t="s">
         <v>159</v>
       </c>
@@ -12197,7 +12819,7 @@
     </row>
     <row r="31" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="59"/>
-      <c r="B31" s="216"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="113" t="s">
         <v>160</v>
       </c>
@@ -12234,7 +12856,7 @@
     </row>
     <row r="32" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="59"/>
-      <c r="B32" s="216"/>
+      <c r="B32" s="220"/>
       <c r="C32" s="113" t="s">
         <v>161</v>
       </c>
@@ -12271,7 +12893,7 @@
     </row>
     <row r="33" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="59"/>
-      <c r="B33" s="216"/>
+      <c r="B33" s="220"/>
       <c r="C33" s="113" t="s">
         <v>162</v>
       </c>
@@ -12308,7 +12930,7 @@
     </row>
     <row r="34" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="59"/>
-      <c r="B34" s="217"/>
+      <c r="B34" s="221"/>
       <c r="C34" s="133" t="s">
         <v>163</v>
       </c>
@@ -12345,7 +12967,7 @@
     </row>
     <row r="35" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A35" s="59"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="222" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="113"/>
@@ -12382,7 +13004,7 @@
     </row>
     <row r="36" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="59"/>
-      <c r="B36" s="216"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="113" t="s">
         <v>167</v>
       </c>
@@ -12419,7 +13041,7 @@
     </row>
     <row r="37" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="59"/>
-      <c r="B37" s="216"/>
+      <c r="B37" s="220"/>
       <c r="C37" s="113" t="s">
         <v>166</v>
       </c>
@@ -12456,7 +13078,7 @@
     </row>
     <row r="38" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A38" s="59"/>
-      <c r="B38" s="216"/>
+      <c r="B38" s="220"/>
       <c r="C38" s="113" t="s">
         <v>168</v>
       </c>
@@ -12493,7 +13115,7 @@
     </row>
     <row r="39" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="59"/>
-      <c r="B39" s="216"/>
+      <c r="B39" s="220"/>
       <c r="C39" s="113" t="s">
         <v>169</v>
       </c>
@@ -12530,7 +13152,7 @@
     </row>
     <row r="40" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="59"/>
-      <c r="B40" s="216"/>
+      <c r="B40" s="220"/>
       <c r="C40" s="133" t="s">
         <v>170</v>
       </c>
@@ -12567,7 +13189,7 @@
     </row>
     <row r="41" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="59"/>
-      <c r="B41" s="219"/>
+      <c r="B41" s="223"/>
       <c r="C41" s="133" t="s">
         <v>171</v>
       </c>
@@ -12604,7 +13226,7 @@
     </row>
     <row r="42" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="59"/>
-      <c r="B42" s="218" t="s">
+      <c r="B42" s="222" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="113"/>
@@ -12641,7 +13263,7 @@
     </row>
     <row r="43" spans="1:29" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="59"/>
-      <c r="B43" s="219"/>
+      <c r="B43" s="223"/>
       <c r="C43" s="113" t="s">
         <v>173</v>
       </c>
@@ -13276,13 +13898,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13395,12 +14017,12 @@
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="235" t="s">
+      <c r="G5" s="239" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="237"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="241"/>
       <c r="K5" s="62"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -13426,10 +14048,10 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
-      <c r="J6" s="230"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
       <c r="K6" s="62"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -13455,10 +14077,10 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="230"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="234"/>
       <c r="K7" s="62"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -13479,10 +14101,10 @@
       <c r="D8" s="62"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="230"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
       <c r="K8" s="12"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -13503,12 +14125,12 @@
       <c r="D9" s="62"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="228" t="s">
+      <c r="G9" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="229"/>
-      <c r="I9" s="229"/>
-      <c r="J9" s="230"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
       <c r="K9" s="62"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -13526,10 +14148,10 @@
       <c r="D10" s="62"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="230"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
       <c r="K10" s="62"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -13548,18 +14170,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="62"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="238"/>
       <c r="K11" s="62"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
